--- a/biology/Zoologie/Enallagma/Enallagma.xlsx
+++ b/biology/Zoologie/Enallagma/Enallagma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enallagma  est un genre de demoiselles ou zygoptères (Zygoptera), appartenant à la famille des Coenagrionidae, et qui comprend au moins 39 espèces dont certaines sont appelées « agrions » en français. Les demoiselles de ce genre ressemblent à celles du genre Coenagrion  (en français, on utilise aussi le nom vernaculaire "agrion" pour désigner des espèces des genres Coenagrion et Enallagma). Le dessus de la tête est noir avec des taches claires derrière les yeux. Le thorax est noir avec deux bandes claires dorsalement et clair sur les côtés. Le mâle a un abdomen bleu avec des taches dorsales noires. La femelle a un abdomen de couleur plus claire.Enallagma cyathigerum, l'Agrion porte-coupe, est la seule espèce connue en Europe où elle est présente presque partout et n'y est pas spécialement menacée.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>39 espèces connues au 18 mars 2009 selon ITIS[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>39 espèces connues au 18 mars 2009 selon ITIS :
 Enallagma anna Williamson, 1900 -- River Bluet
 Enallagma annexum (Hagen, 1861) -- Northern Bluet
 Enallagma antennatum (Say, 1839) -- Rainbow Bluet -- Agrion arc-en-ciel
